--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -536,7 +536,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="urn:iso:std:iso:3166"/&gt;
-    &lt;code value="BE"/&gt;
+    &lt;code value="BEL"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEIdentifiableProduct</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEIdentifiableProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/branches/master/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
